--- a/New Microsoft Excel Worksheet (2).xlsx
+++ b/New Microsoft Excel Worksheet (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,13 +165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,15 +278,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D3:K13" totalsRowCount="1" headerRowDxfId="4">
-  <autoFilter ref="D3:K13"/>
+  <autoFilter ref="D3:K12"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
     <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="7" name="Column7" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="6" name="Column6" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Column7" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="8" name="Column8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -575,7 +583,7 @@
   <dimension ref="D3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +658,7 @@
       <c r="G5">
         <v>64</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>60</v>
       </c>
       <c r="I5" s="2">
